--- a/parametros.xlsx
+++ b/parametros.xlsx
@@ -122,12 +122,33 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="double"/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="double"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double"/>
       <diagonal/>
     </border>
   </borders>
@@ -156,12 +177,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,221 +217,243 @@
   </sheetPr>
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA42" activeCellId="0" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
       <c r="J1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
       <c r="O1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
       <c r="T1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
       <c r="Y1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="n">
+      <c r="G3" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="L3" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="n">
+      <c r="L3" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="Q3" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1" t="n">
+      <c r="Q3" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="V3" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1" t="n">
+      <c r="V3" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3" t="n">
         <v>450</v>
       </c>
-      <c r="AA3" s="1" t="n">
+      <c r="AA3" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -569,168 +624,168 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>450</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="G6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>450</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="n">
+      <c r="L6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="n">
         <v>450</v>
       </c>
-      <c r="Q6" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1" t="n">
+      <c r="Q6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="V6" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1" t="n">
+      <c r="V6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="AA6" s="1" t="n">
+      <c r="AA6" s="4" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>450</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
+      <c r="G7" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="n">
         <v>450</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="n">
+      <c r="L7" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="n">
         <v>450</v>
       </c>
-      <c r="Q7" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1" t="n">
+      <c r="Q7" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="n">
         <v>450</v>
       </c>
-      <c r="V7" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1" t="n">
+      <c r="V7" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3" t="n">
         <v>450</v>
       </c>
-      <c r="AA7" s="1" t="n">
+      <c r="AA7" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -901,168 +956,168 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="n">
+      <c r="C10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>450</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="n">
+      <c r="G10" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="L10" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="n">
+      <c r="L10" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="Q10" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1" t="n">
+      <c r="Q10" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="V10" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="1" t="n">
+      <c r="V10" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="AA10" s="1" t="n">
+      <c r="AA10" s="4" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="n">
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="n">
+      <c r="G11" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="L11" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="n">
+      <c r="L11" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="Q11" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="1" t="n">
+      <c r="Q11" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="V11" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="1" t="n">
+      <c r="V11" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AA11" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -1233,168 +1288,168 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="n">
+      <c r="C14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="n">
+      <c r="G14" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="L14" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="n">
+      <c r="L14" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="Q14" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1" t="n">
+      <c r="Q14" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="V14" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="1" t="n">
+      <c r="V14" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="4" t="n">
         <v>376</v>
       </c>
-      <c r="AA14" s="1" t="n">
+      <c r="AA14" s="4" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="n">
+      <c r="C15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="n">
+      <c r="G15" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="n">
         <v>396</v>
       </c>
-      <c r="L15" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="n">
+      <c r="L15" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3" t="n">
         <v>430</v>
       </c>
-      <c r="Q15" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" s="1" t="n">
+      <c r="Q15" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3" t="n">
         <v>430</v>
       </c>
-      <c r="V15" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="1" t="n">
+      <c r="V15" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AA15" s="1" t="n">
+      <c r="AA15" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -1565,168 +1620,168 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="n">
+      <c r="C18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="n">
+      <c r="G18" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="n">
         <v>360</v>
       </c>
-      <c r="L18" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1" t="n">
+      <c r="L18" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="Q18" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1" t="n">
+      <c r="Q18" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="V18" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X18" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="1" t="n">
+      <c r="V18" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="AA18" s="1" t="n">
+      <c r="AA18" s="4" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="n">
+      <c r="C19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="n">
         <v>350</v>
       </c>
-      <c r="G19" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="n">
+      <c r="G19" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="n">
         <v>330</v>
       </c>
-      <c r="L19" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1" t="n">
+      <c r="L19" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="n">
         <v>330</v>
       </c>
-      <c r="Q19" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1" t="n">
+      <c r="Q19" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3" t="n">
         <v>330</v>
       </c>
-      <c r="V19" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="1" t="n">
+      <c r="V19" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="3" t="n">
         <v>330</v>
       </c>
-      <c r="AA19" s="1" t="n">
+      <c r="AA19" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -1897,168 +1952,168 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="n">
+      <c r="C22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="n">
         <v>370</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="n">
+      <c r="G22" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="n">
         <v>370</v>
       </c>
-      <c r="L22" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1" t="n">
+      <c r="L22" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="Q22" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" s="1" t="n">
+      <c r="Q22" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4" t="n">
         <v>350</v>
       </c>
-      <c r="V22" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="1" t="n">
+      <c r="V22" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="AA22" s="1" t="n">
+      <c r="AA22" s="4" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="n">
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="G23" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="n">
+      <c r="G23" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="L23" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="1" t="n">
+      <c r="L23" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="Q23" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" s="1" t="n">
+      <c r="Q23" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="3" t="n">
         <v>240</v>
       </c>
-      <c r="V23" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="1" t="n">
+      <c r="V23" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3" t="n">
         <v>255</v>
       </c>
-      <c r="AA23" s="1" t="n">
+      <c r="AA23" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -2229,168 +2284,168 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="n">
+      <c r="C26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="G26" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="n">
+      <c r="G26" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="L26" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="1" t="n">
+      <c r="L26" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4" t="n">
         <v>750</v>
       </c>
-      <c r="Q26" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U26" s="1" t="n">
+      <c r="Q26" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="V26" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="1" t="n">
+      <c r="V26" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="AA26" s="1" t="n">
+      <c r="AA26" s="4" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="n">
+      <c r="C27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="n">
         <v>370</v>
       </c>
-      <c r="G27" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="n">
+      <c r="G27" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="L27" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="1" t="n">
+      <c r="L27" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="Q27" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U27" s="1" t="n">
+      <c r="Q27" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="V27" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X27" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="1" t="n">
+      <c r="V27" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AA27" s="1" t="n">
+      <c r="AA27" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -2561,168 +2616,168 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="n">
+      <c r="C30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="G30" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="n">
+      <c r="G30" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="L30" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="1" t="n">
+      <c r="L30" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4" t="n">
         <v>230</v>
       </c>
-      <c r="Q30" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" s="1" t="n">
+      <c r="Q30" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="4" t="n">
         <v>260</v>
       </c>
-      <c r="V30" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X30" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="1" t="n">
+      <c r="V30" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="AA30" s="1" t="n">
+      <c r="AA30" s="4" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="n">
+      <c r="C31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="n">
         <v>387</v>
       </c>
-      <c r="G31" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="n">
+      <c r="G31" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="L31" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1" t="n">
+      <c r="L31" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="Q31" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U31" s="1" t="n">
+      <c r="Q31" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="3" t="n">
         <v>376</v>
       </c>
-      <c r="V31" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="1" t="n">
+      <c r="V31" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="3" t="n">
         <v>350</v>
       </c>
-      <c r="AA31" s="1" t="n">
+      <c r="AA31" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -2893,168 +2948,168 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="n">
+      <c r="C34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="n">
         <v>550</v>
       </c>
-      <c r="G34" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1" t="n">
+      <c r="G34" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="n">
         <v>550</v>
       </c>
-      <c r="L34" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="1" t="n">
+      <c r="L34" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4" t="n">
         <v>430</v>
       </c>
-      <c r="Q34" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U34" s="1" t="n">
+      <c r="Q34" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" s="4" t="n">
         <v>353</v>
       </c>
-      <c r="V34" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X34" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="1" t="n">
+      <c r="V34" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="4" t="n">
         <v>550</v>
       </c>
-      <c r="AA34" s="1" t="n">
+      <c r="AA34" s="4" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="n">
+      <c r="C35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="G35" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="n">
+      <c r="G35" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="L35" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="1" t="n">
+      <c r="L35" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="Q35" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U35" s="1" t="n">
+      <c r="Q35" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="V35" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X35" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="1" t="n">
+      <c r="V35" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AA35" s="1" t="n">
+      <c r="AA35" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -3225,168 +3280,168 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="n">
+      <c r="C38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="G38" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1" t="n">
+      <c r="G38" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="L38" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="1" t="n">
+      <c r="L38" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="Q38" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S38" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U38" s="1" t="n">
+      <c r="Q38" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="V38" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X38" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="1" t="n">
+      <c r="V38" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="AA38" s="1" t="n">
+      <c r="AA38" s="4" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="n">
+      <c r="C39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="n">
         <v>290</v>
       </c>
-      <c r="G39" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="n">
+      <c r="G39" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="n">
         <v>290</v>
       </c>
-      <c r="L39" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="1" t="n">
+      <c r="L39" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3" t="n">
         <v>354</v>
       </c>
-      <c r="Q39" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U39" s="1" t="n">
+      <c r="Q39" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" s="3" t="n">
         <v>360</v>
       </c>
-      <c r="V39" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X39" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="1" t="n">
+      <c r="V39" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="3" t="n">
         <v>360</v>
       </c>
-      <c r="AA39" s="1" t="n">
+      <c r="AA39" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -3557,85 +3612,85 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="n">
+      <c r="C42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4" t="n">
         <v>357</v>
       </c>
-      <c r="G42" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="n">
+      <c r="G42" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4" t="n">
         <v>316</v>
       </c>
-      <c r="L42" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="O42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="1" t="n">
+      <c r="L42" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4" t="n">
         <v>251</v>
       </c>
-      <c r="Q42" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S42" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="T42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U42" s="1" t="n">
+      <c r="Q42" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" s="4" t="n">
         <v>351</v>
       </c>
-      <c r="V42" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="1" t="n">
+      <c r="V42" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="4" t="n">
         <v>365</v>
       </c>
-      <c r="AA42" s="1" t="n">
+      <c r="AA42" s="4" t="n">
         <v>0.9</v>
       </c>
     </row>
